--- a/results/evaluate-en.xlsx
+++ b/results/evaluate-en.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -568,13 +568,13 @@
         <v>128</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8164556962025317</v>
+        <v>0.7754010695187166</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6323529411764706</v>
+        <v>0.7107843137254902</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6836706849861559</v>
+        <v>0.6821484471350068</v>
       </c>
     </row>
     <row r="3">
@@ -610,7 +610,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -625,13 +625,13 @@
         <v>128</v>
       </c>
       <c r="O3" t="n">
-        <v>0.825503355704698</v>
+        <v>0.7819148936170213</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6029411764705882</v>
+        <v>0.7205882352941176</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6854929929183</v>
+        <v>0.6803905899250585</v>
       </c>
     </row>
     <row r="4">
@@ -667,7 +667,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -682,13 +682,13 @@
         <v>128</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7637362637362637</v>
+        <v>0.7657142857142857</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6813725490196079</v>
+        <v>0.6568627450980392</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6919840270423062</v>
+        <v>0.6928506849127581</v>
       </c>
     </row>
     <row r="5">
@@ -724,7 +724,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -739,13 +739,13 @@
         <v>128</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8024691358024691</v>
+        <v>0.7732558139534884</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6372549019607843</v>
+        <v>0.6519607843137255</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.687428974536391</v>
+        <v>0.6893323937879468</v>
       </c>
     </row>
     <row r="6">
@@ -781,7 +781,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -796,13 +796,13 @@
         <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7697368421052632</v>
+        <v>0.7923497267759563</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5735294117647058</v>
+        <v>0.7107843137254902</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.702439477154076</v>
+        <v>0.6801930254814165</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +838,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -853,13 +853,13 @@
         <v>128</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8070175438596491</v>
+        <v>0.7671957671957672</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.7107843137254902</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6788608029711014</v>
+        <v>0.684508145243382</v>
       </c>
     </row>
     <row r="8">
@@ -895,7 +895,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -910,13 +910,13 @@
         <v>128</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7621621621621621</v>
+        <v>0.8037974683544303</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6911764705882353</v>
+        <v>0.6225490196078431</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.688334966817802</v>
+        <v>0.6877373082001659</v>
       </c>
     </row>
     <row r="9">
@@ -952,7 +952,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -967,13 +967,13 @@
         <v>128</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.7848837209302325</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6807745223190159</v>
+        <v>0.6855952728079094</v>
       </c>
     </row>
     <row r="10">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1024,13 +1024,13 @@
         <v>128</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8089171974522293</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6225490196078431</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6881892180753116</v>
+        <v>0.6884231095458836</v>
       </c>
     </row>
     <row r="11">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1081,13 +1081,13 @@
         <v>128</v>
       </c>
       <c r="O11" t="n">
-        <v>0.802547770700637</v>
+        <v>0.7831325301204819</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.6372549019607843</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6883905155022594</v>
+        <v>0.6909502276629532</v>
       </c>
     </row>
     <row r="12">
@@ -1101,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1138,13 +1138,13 @@
         <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7821229050279329</v>
+        <v>0.8011695906432749</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.6748768472906403</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6818645296541574</v>
+        <v>0.6804284857249208</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1195,13 +1195,13 @@
         <v>128</v>
       </c>
       <c r="O13" t="n">
-        <v>0.79375</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6225490196078431</v>
+        <v>0.6945812807881774</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6910600482512451</v>
+        <v>0.687586115076651</v>
       </c>
     </row>
     <row r="14">
@@ -1215,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1252,13 +1252,13 @@
         <v>128</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7771084337349398</v>
+        <v>0.8192090395480226</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6323529411764706</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6931257731485263</v>
+        <v>0.6698739466324352</v>
       </c>
     </row>
     <row r="15">
@@ -1272,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1309,13 +1309,13 @@
         <v>128</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7848837209302325</v>
+        <v>0.776536312849162</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6617647058823529</v>
+        <v>0.6847290640394089</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.687885975242954</v>
+        <v>0.6837298711660381</v>
       </c>
     </row>
     <row r="16">
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1366,13 +1366,13 @@
         <v>128</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8120805369127517</v>
+        <v>0.7661691542288557</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5931372549019608</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.691243068644385</v>
+        <v>0.6805606842820161</v>
       </c>
     </row>
     <row r="17">
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1423,13 +1423,13 @@
         <v>128</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7660818713450293</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6421568627450981</v>
+        <v>0.6502463054187192</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6947988724243098</v>
+        <v>0.6927894647344784</v>
       </c>
     </row>
     <row r="18">
@@ -1443,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1480,13 +1480,13 @@
         <v>128</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7784090909090909</v>
       </c>
       <c r="P18" t="n">
-        <v>0.6372549019607843</v>
+        <v>0.6748768472906403</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7100529043638266</v>
+        <v>0.6880632950589548</v>
       </c>
     </row>
     <row r="19">
@@ -1500,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1537,13 +1537,13 @@
         <v>128</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7738095238095238</v>
+        <v>0.7680412371134021</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6372549019607843</v>
+        <v>0.7339901477832512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6947821669619927</v>
+        <v>0.6844467779130458</v>
       </c>
     </row>
     <row r="20">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1594,13 +1594,13 @@
         <v>128</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7595628415300546</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.6847290640394089</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6835388080934123</v>
+        <v>0.6904275741971916</v>
       </c>
     </row>
     <row r="21">
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1651,13 +1651,13 @@
         <v>128</v>
       </c>
       <c r="O21" t="n">
-        <v>0.825503355704698</v>
+        <v>0.7869822485207101</v>
       </c>
       <c r="P21" t="n">
-        <v>0.6029411764705882</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6841557415085087</v>
+        <v>0.686533843639889</v>
       </c>
     </row>
     <row r="22">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1708,13 +1708,13 @@
         <v>128</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7976878612716763</v>
+        <v>0.7914110429447853</v>
       </c>
       <c r="P22" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6790613186850724</v>
+        <v>0.6884245282915823</v>
       </c>
     </row>
     <row r="23">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1765,13 +1765,13 @@
         <v>128</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7784090909090909</v>
       </c>
       <c r="P23" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.6715686274509803</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6873720168033028</v>
+        <v>0.6864632995164834</v>
       </c>
     </row>
     <row r="24">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1822,13 +1822,13 @@
         <v>128</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7525773195876289</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7156862745098039</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6873141108262565</v>
+        <v>0.6996613700839805</v>
       </c>
     </row>
     <row r="25">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1879,13 +1879,13 @@
         <v>128</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.728110599078341</v>
       </c>
       <c r="P25" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.7745098039215687</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.680903242105</v>
+        <v>0.6930995418037613</v>
       </c>
     </row>
     <row r="26">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1936,13 +1936,13 @@
         <v>128</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8356164383561644</v>
+        <v>0.7861635220125787</v>
       </c>
       <c r="P26" t="n">
-        <v>0.5980392156862745</v>
+        <v>0.6127450980392157</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.6842302899815772</v>
+        <v>0.6898849346632554</v>
       </c>
     </row>
     <row r="27">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1993,13 +1993,13 @@
         <v>128</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.7861271676300579</v>
       </c>
       <c r="P27" t="n">
-        <v>0.5784313725490197</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6849108342234845</v>
+        <v>0.6849655774048249</v>
       </c>
     </row>
     <row r="28">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2050,13 +2050,13 @@
         <v>128</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8128654970760234</v>
+        <v>0.7783783783783784</v>
       </c>
       <c r="P28" t="n">
-        <v>0.6813725490196079</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.6759614263077361</v>
+        <v>0.682158855062762</v>
       </c>
     </row>
     <row r="29">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2107,13 +2107,13 @@
         <v>128</v>
       </c>
       <c r="O29" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.7914110429447853</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7156862745098039</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.6775607963187575</v>
+        <v>0.6917955411230405</v>
       </c>
     </row>
     <row r="30">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2164,13 +2164,13 @@
         <v>128</v>
       </c>
       <c r="O30" t="n">
-        <v>0.8141025641025641</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="P30" t="n">
-        <v>0.6225490196078431</v>
+        <v>0.5784313725490197</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6835502127504659</v>
+        <v>0.6832464257186509</v>
       </c>
     </row>
     <row r="31">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2221,13 +2221,13 @@
         <v>128</v>
       </c>
       <c r="O31" t="n">
-        <v>0.7978142076502732</v>
+        <v>0.80625</v>
       </c>
       <c r="P31" t="n">
-        <v>0.7156862745098039</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.674624069523139</v>
+        <v>0.6843542527738724</v>
       </c>
     </row>
     <row r="32">
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2278,13 +2278,13 @@
         <v>128</v>
       </c>
       <c r="O32" t="n">
-        <v>0.7722222222222223</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="P32" t="n">
-        <v>0.6813725490196079</v>
+        <v>0.6502463054187192</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6900727712668462</v>
+        <v>0.680389898664811</v>
       </c>
     </row>
     <row r="33">
@@ -2298,7 +2298,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2335,13 +2335,13 @@
         <v>128</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="P33" t="n">
-        <v>0.6617647058823529</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.6812081572290615</v>
+        <v>0.6796273087883826</v>
       </c>
     </row>
     <row r="34">
@@ -2355,7 +2355,7 @@
         <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2392,13 +2392,13 @@
         <v>128</v>
       </c>
       <c r="O34" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.7823529411764706</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7107843137254902</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6854978761031674</v>
+        <v>0.686894965327643</v>
       </c>
     </row>
     <row r="35">
@@ -2412,7 +2412,7 @@
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2449,13 +2449,13 @@
         <v>128</v>
       </c>
       <c r="O35" t="n">
-        <v>0.7900552486187845</v>
+        <v>0.783625730994152</v>
       </c>
       <c r="P35" t="n">
-        <v>0.7009803921568627</v>
+        <v>0.6600985221674877</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.6790790310909329</v>
+        <v>0.6849847568405999</v>
       </c>
     </row>
     <row r="36">
@@ -2469,7 +2469,7 @@
         <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2506,13 +2506,13 @@
         <v>128</v>
       </c>
       <c r="O36" t="n">
-        <v>0.821917808219178</v>
+        <v>0.7880434782608695</v>
       </c>
       <c r="P36" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.6876890954123144</v>
+        <v>0.6786638017833103</v>
       </c>
     </row>
     <row r="37">
@@ -2526,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2563,13 +2563,13 @@
         <v>128</v>
       </c>
       <c r="O37" t="n">
-        <v>0.7814207650273224</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="P37" t="n">
-        <v>0.7009803921568627</v>
+        <v>0.6305418719211823</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.6836875611168702</v>
+        <v>0.6934111746827502</v>
       </c>
     </row>
     <row r="38">
@@ -2583,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2620,13 +2620,13 @@
         <v>128</v>
       </c>
       <c r="O38" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7578947368421053</v>
       </c>
       <c r="P38" t="n">
-        <v>0.7254901960784313</v>
+        <v>0.7093596059113301</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6755169693404837</v>
+        <v>0.6860043476609623</v>
       </c>
     </row>
     <row r="39">
@@ -2640,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2677,13 +2677,13 @@
         <v>128</v>
       </c>
       <c r="O39" t="n">
-        <v>0.7552083333333334</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7107843137254902</v>
+        <v>0.6798029556650246</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.6896309669002276</v>
+        <v>0.6807895759871323</v>
       </c>
     </row>
     <row r="40">
@@ -2697,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2734,13 +2734,13 @@
         <v>128</v>
       </c>
       <c r="O40" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8451612903225807</v>
       </c>
       <c r="P40" t="n">
-        <v>0.7205882352941176</v>
+        <v>0.645320197044335</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.679877492197165</v>
+        <v>0.680062906025282</v>
       </c>
     </row>
     <row r="41">
@@ -2754,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>44.25162689804772</v>
+        <v>44.22657952069716</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2791,13 +2791,13 @@
         <v>128</v>
       </c>
       <c r="O41" t="n">
-        <v>0.7988826815642458</v>
+        <v>0.8109756097560976</v>
       </c>
       <c r="P41" t="n">
-        <v>0.7009803921568627</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.6784218028672605</v>
+        <v>0.6792559527623627</v>
       </c>
     </row>
     <row r="42">
@@ -2811,7 +2811,7 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>44.1304347826087</v>
+        <v>44.25162689804772</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2848,13 +2848,13 @@
         <v>128</v>
       </c>
       <c r="O42" t="n">
-        <v>0.7987804878048781</v>
+        <v>0.7978723404255319</v>
       </c>
       <c r="P42" t="n">
-        <v>0.645320197044335</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.6835414850193521</v>
+        <v>0.6723810178338835</v>
       </c>
     </row>
     <row r="43">
@@ -2868,7 +2868,7 @@
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>44.1304347826087</v>
+        <v>44.25162689804772</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2905,13 +2905,13 @@
         <v>128</v>
       </c>
       <c r="O43" t="n">
-        <v>0.7671957671957672</v>
+        <v>0.7783505154639175</v>
       </c>
       <c r="P43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7401960784313726</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6834903292033984</v>
+        <v>0.6781101405232692</v>
       </c>
     </row>
     <row r="44">
@@ -2925,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>44.1304347826087</v>
+        <v>44.25162689804772</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2962,13 +2962,13 @@
         <v>128</v>
       </c>
       <c r="O44" t="n">
-        <v>0.7939393939393939</v>
+        <v>0.7880434782608695</v>
       </c>
       <c r="P44" t="n">
-        <v>0.645320197044335</v>
+        <v>0.7107843137254902</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.6862157272255939</v>
+        <v>0.6784495894924421</v>
       </c>
     </row>
     <row r="45">
@@ -2982,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>44.1304347826087</v>
+        <v>44.25162689804772</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3019,13 +3019,13 @@
         <v>128</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8475609756097561</v>
+        <v>0.7912087912087912</v>
       </c>
       <c r="P45" t="n">
-        <v>0.6847290640394089</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.6674143459485925</v>
+        <v>0.6756839400516932</v>
       </c>
     </row>
     <row r="46">
@@ -3039,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>44.1304347826087</v>
+        <v>44.25162689804772</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3076,13 +3076,13 @@
         <v>128</v>
       </c>
       <c r="O46" t="n">
-        <v>0.8203592814371258</v>
+        <v>0.7885714285714286</v>
       </c>
       <c r="P46" t="n">
-        <v>0.6748768472906403</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6776359786158023</v>
+        <v>0.6827706342922633</v>
       </c>
     </row>
     <row r="47">
@@ -3096,7 +3096,7 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>44.1304347826087</v>
+        <v>44.25162689804772</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3133,13 +3133,13 @@
         <v>128</v>
       </c>
       <c r="O47" t="n">
-        <v>0.8083832335329342</v>
+        <v>0.8402777777777778</v>
       </c>
       <c r="P47" t="n">
-        <v>0.6650246305418719</v>
+        <v>0.5931372549019608</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.6800108126972033</v>
+        <v>0.6844279940629988</v>
       </c>
     </row>
     <row r="48">
@@ -3153,7 +3153,7 @@
         <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>44.1304347826087</v>
+        <v>44.25162689804772</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3190,13 +3190,13 @@
         <v>128</v>
       </c>
       <c r="O48" t="n">
-        <v>0.82</v>
+        <v>0.8081395348837209</v>
       </c>
       <c r="P48" t="n">
-        <v>0.6059113300492611</v>
+        <v>0.6813725490196079</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.6832288923470871</v>
+        <v>0.6766118766687439</v>
       </c>
     </row>
     <row r="49">
@@ -3210,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>44.1304347826087</v>
+        <v>44.25162689804772</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3247,13 +3247,13 @@
         <v>128</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8143712574850299</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="P49" t="n">
-        <v>0.6699507389162561</v>
+        <v>0.5637254901960784</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.6771867213041886</v>
+        <v>0.6921877526150867</v>
       </c>
     </row>
     <row r="50">
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>44.1304347826087</v>
+        <v>44.25162689804772</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3304,13 +3304,13 @@
         <v>128</v>
       </c>
       <c r="O50" t="n">
-        <v>0.8356164383561644</v>
+        <v>0.8125</v>
       </c>
       <c r="P50" t="n">
-        <v>0.6009852216748769</v>
+        <v>0.7009803921568627</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6828665432722673</v>
+        <v>0.6712571723859377</v>
       </c>
     </row>
     <row r="51">
@@ -3324,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>44.1304347826087</v>
+        <v>44.25162689804772</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3361,13 +3361,13 @@
         <v>128</v>
       </c>
       <c r="O51" t="n">
-        <v>0.7715736040609137</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="P51" t="n">
-        <v>0.7487684729064039</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.6774816088054492</v>
+        <v>0.6889466899336031</v>
       </c>
     </row>
     <row r="52">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3418,13 +3418,13 @@
         <v>128</v>
       </c>
       <c r="O52" t="n">
-        <v>0.7558139534883721</v>
+        <v>0.7752808988764045</v>
       </c>
       <c r="P52" t="n">
-        <v>0.6372549019607843</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.6961784698957993</v>
+        <v>0.6861579256564573</v>
       </c>
     </row>
     <row r="53">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3475,13 +3475,13 @@
         <v>128</v>
       </c>
       <c r="O53" t="n">
-        <v>0.791907514450867</v>
+        <v>0.7486338797814208</v>
       </c>
       <c r="P53" t="n">
         <v>0.6715686274509803</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.6853601977778618</v>
+        <v>0.6961203575651455</v>
       </c>
     </row>
     <row r="54">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3532,13 +3532,13 @@
         <v>128</v>
       </c>
       <c r="O54" t="n">
-        <v>0.7852760736196319</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="P54" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.6894145976436888</v>
+        <v>0.6935603358740403</v>
       </c>
     </row>
     <row r="55">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3589,13 +3589,13 @@
         <v>128</v>
       </c>
       <c r="O55" t="n">
-        <v>0.7865853658536586</v>
+        <v>0.7757575757575758</v>
       </c>
       <c r="P55" t="n">
-        <v>0.6323529411764706</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.6918429837051028</v>
+        <v>0.6931014213541324</v>
       </c>
     </row>
     <row r="56">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3646,13 +3646,13 @@
         <v>128</v>
       </c>
       <c r="O56" t="n">
-        <v>0.803680981595092</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="P56" t="n">
-        <v>0.6421568627450981</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.6844907673217211</v>
+        <v>0.6981691711636789</v>
       </c>
     </row>
     <row r="57">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3703,13 +3703,13 @@
         <v>128</v>
       </c>
       <c r="O57" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7409326424870466</v>
       </c>
       <c r="P57" t="n">
-        <v>0.6519607843137255</v>
+        <v>0.7009803921568627</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.6877330187344499</v>
+        <v>0.6941689345945247</v>
       </c>
     </row>
     <row r="58">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3760,13 +3760,13 @@
         <v>128</v>
       </c>
       <c r="O58" t="n">
-        <v>0.7885714285714286</v>
+        <v>0.7530120481927711</v>
       </c>
       <c r="P58" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.6127450980392157</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.6836566516479029</v>
+        <v>0.7001674052432922</v>
       </c>
     </row>
     <row r="59">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3817,13 +3817,13 @@
         <v>128</v>
       </c>
       <c r="O59" t="n">
-        <v>0.7790055248618785</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="P59" t="n">
-        <v>0.6911764705882353</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.6858085631807042</v>
+        <v>0.6897225815665438</v>
       </c>
     </row>
     <row r="60">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3874,13 +3874,13 @@
         <v>128</v>
       </c>
       <c r="O60" t="n">
-        <v>0.7814207650273224</v>
+        <v>0.7456647398843931</v>
       </c>
       <c r="P60" t="n">
-        <v>0.7009803921568627</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.6833267731676909</v>
+        <v>0.6975523710509443</v>
       </c>
     </row>
     <row r="61">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3931,13 +3931,13 @@
         <v>128</v>
       </c>
       <c r="O61" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.7831325301204819</v>
       </c>
       <c r="P61" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.6372549019607843</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.6861222024336295</v>
+        <v>0.6895598385184034</v>
       </c>
     </row>
     <row r="62">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3988,13 +3988,13 @@
         <v>128</v>
       </c>
       <c r="O62" t="n">
-        <v>0.7953216374269005</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="P62" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.6832558058864899</v>
+        <v>0.6956103630283132</v>
       </c>
     </row>
     <row r="63">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4045,13 +4045,13 @@
         <v>128</v>
       </c>
       <c r="O63" t="n">
-        <v>0.8294117647058824</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="P63" t="n">
-        <v>0.6911764705882353</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.6683937004745136</v>
+        <v>0.6894761660093858</v>
       </c>
     </row>
     <row r="64">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4102,13 +4102,13 @@
         <v>128</v>
       </c>
       <c r="O64" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="P64" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.6820381078182228</v>
+        <v>0.6872189766414254</v>
       </c>
     </row>
     <row r="65">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4159,13 +4159,13 @@
         <v>128</v>
       </c>
       <c r="O65" t="n">
-        <v>0.8231292517006803</v>
+        <v>0.7873563218390804</v>
       </c>
       <c r="P65" t="n">
-        <v>0.5931372549019608</v>
+        <v>0.6715686274509803</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.6863128421363499</v>
+        <v>0.6837339802057262</v>
       </c>
     </row>
     <row r="66">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4216,13 +4216,13 @@
         <v>128</v>
       </c>
       <c r="O66" t="n">
-        <v>0.8291139240506329</v>
+        <v>0.7597765363128491</v>
       </c>
       <c r="P66" t="n">
-        <v>0.6421568627450981</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.6763158325518031</v>
+        <v>0.6968739562851747</v>
       </c>
     </row>
     <row r="67">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4273,13 +4273,13 @@
         <v>128</v>
       </c>
       <c r="O67" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.7658227848101266</v>
       </c>
       <c r="P67" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5931372549019608</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.6904897409250834</v>
+        <v>0.6983357775237193</v>
       </c>
     </row>
     <row r="68">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4330,13 +4330,13 @@
         <v>128</v>
       </c>
       <c r="O68" t="n">
-        <v>0.7821229050279329</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="P68" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.6519607843137255</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.6838700497227997</v>
+        <v>0.6850825699446258</v>
       </c>
     </row>
     <row r="69">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4387,13 +4387,13 @@
         <v>128</v>
       </c>
       <c r="O69" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.7974683544303798</v>
       </c>
       <c r="P69" t="n">
-        <v>0.6617647058823529</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.6799520013647845</v>
+        <v>0.6895379420216327</v>
       </c>
     </row>
     <row r="70">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4444,13 +4444,13 @@
         <v>128</v>
       </c>
       <c r="O70" t="n">
-        <v>0.765625</v>
+        <v>0.7928994082840237</v>
       </c>
       <c r="P70" t="n">
-        <v>0.7205882352941176</v>
+        <v>0.6568627450980392</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.6811436700458899</v>
+        <v>0.6847094624523485</v>
       </c>
     </row>
     <row r="71">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4501,13 +4501,13 @@
         <v>128</v>
       </c>
       <c r="O71" t="n">
-        <v>0.8165680473372781</v>
+        <v>0.7653631284916201</v>
       </c>
       <c r="P71" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.6715686274509803</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.6779321031301503</v>
+        <v>0.6884735037861573</v>
       </c>
     </row>
     <row r="72">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4558,13 +4558,13 @@
         <v>128</v>
       </c>
       <c r="O72" t="n">
-        <v>0.7672955974842768</v>
+        <v>0.7676767676767676</v>
       </c>
       <c r="P72" t="n">
-        <v>0.5980392156862745</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.6996314804879807</v>
+        <v>0.6789652967659874</v>
       </c>
     </row>
     <row r="73">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4615,13 +4615,13 @@
         <v>128</v>
       </c>
       <c r="O73" t="n">
-        <v>0.78125</v>
+        <v>0.7513227513227513</v>
       </c>
       <c r="P73" t="n">
-        <v>0.6127450980392157</v>
+        <v>0.696078431372549</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.6954787350269822</v>
+        <v>0.6928216952046706</v>
       </c>
     </row>
     <row r="74">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4672,13 +4672,13 @@
         <v>128</v>
       </c>
       <c r="O74" t="n">
-        <v>0.7569060773480663</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="P74" t="n">
-        <v>0.6715686274509803</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.6967748323386765</v>
+        <v>0.6806321336752422</v>
       </c>
     </row>
     <row r="75">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4729,13 +4729,13 @@
         <v>128</v>
       </c>
       <c r="O75" t="n">
-        <v>0.8057142857142857</v>
+        <v>0.7752808988764045</v>
       </c>
       <c r="P75" t="n">
-        <v>0.6911764705882353</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.6778723722941964</v>
+        <v>0.6883859501226347</v>
       </c>
     </row>
     <row r="76">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4786,13 +4786,13 @@
         <v>128</v>
       </c>
       <c r="O76" t="n">
-        <v>0.7470588235294118</v>
+        <v>0.8</v>
       </c>
       <c r="P76" t="n">
-        <v>0.6225490196078431</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.7023689507662345</v>
+        <v>0.680771010428861</v>
       </c>
     </row>
     <row r="77">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4843,13 +4843,13 @@
         <v>128</v>
       </c>
       <c r="O77" t="n">
-        <v>0.7986577181208053</v>
+        <v>0.7688442211055276</v>
       </c>
       <c r="P77" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.6919514512291699</v>
+        <v>0.6794984497113755</v>
       </c>
     </row>
     <row r="78">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4900,13 +4900,13 @@
         <v>128</v>
       </c>
       <c r="O78" t="n">
-        <v>0.7663043478260869</v>
+        <v>0.7643979057591623</v>
       </c>
       <c r="P78" t="n">
-        <v>0.6911764705882353</v>
+        <v>0.7156862745098039</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.6878469291581507</v>
+        <v>0.6851470913907711</v>
       </c>
     </row>
     <row r="79">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4957,13 +4957,13 @@
         <v>128</v>
       </c>
       <c r="O79" t="n">
-        <v>0.75</v>
+        <v>0.755</v>
       </c>
       <c r="P79" t="n">
-        <v>0.6911764705882353</v>
+        <v>0.7401960784313726</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.6922604667907681</v>
+        <v>0.6874655742448736</v>
       </c>
     </row>
     <row r="80">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5014,13 +5014,13 @@
         <v>128</v>
       </c>
       <c r="O80" t="n">
-        <v>0.7717391304347826</v>
+        <v>0.78</v>
       </c>
       <c r="P80" t="n">
-        <v>0.696078431372549</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.6872257214047645</v>
+        <v>0.6758671285273454</v>
       </c>
     </row>
     <row r="81">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5071,13 +5071,13 @@
         <v>128</v>
       </c>
       <c r="O81" t="n">
-        <v>0.7764705882352941</v>
+        <v>0.7795698924731183</v>
       </c>
       <c r="P81" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.7107843137254902</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.6903569376391082</v>
+        <v>0.6815225156165514</v>
       </c>
     </row>
     <row r="82">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5128,13 +5128,13 @@
         <v>128</v>
       </c>
       <c r="O82" t="n">
-        <v>0.7566137566137566</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="P82" t="n">
         <v>0.7009803921568627</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.6903273914486106</v>
+        <v>0.679598354077908</v>
       </c>
     </row>
     <row r="83">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5185,13 +5185,13 @@
         <v>128</v>
       </c>
       <c r="O83" t="n">
-        <v>0.7393617021276596</v>
+        <v>0.7705882352941177</v>
       </c>
       <c r="P83" t="n">
-        <v>0.6813725490196079</v>
+        <v>0.6421568627450981</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.6960457132850448</v>
+        <v>0.6897582958680689</v>
       </c>
     </row>
     <row r="84">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5242,13 +5242,13 @@
         <v>128</v>
       </c>
       <c r="O84" t="n">
-        <v>0.7789473684210526</v>
+        <v>0.8198757763975155</v>
       </c>
       <c r="P84" t="n">
-        <v>0.7254901960784313</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.6770718572196629</v>
+        <v>0.6810626110906456</v>
       </c>
     </row>
     <row r="85">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5299,13 +5299,13 @@
         <v>128</v>
       </c>
       <c r="O85" t="n">
-        <v>0.7853107344632768</v>
+        <v>0.7701149425287356</v>
       </c>
       <c r="P85" t="n">
-        <v>0.6813725490196079</v>
+        <v>0.6568627450980392</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.6849787632193327</v>
+        <v>0.6942122784198753</v>
       </c>
     </row>
     <row r="86">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5356,13 +5356,13 @@
         <v>128</v>
       </c>
       <c r="O86" t="n">
-        <v>0.8137931034482758</v>
+        <v>0.808641975308642</v>
       </c>
       <c r="P86" t="n">
-        <v>0.5784313725490197</v>
+        <v>0.6421568627450981</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.6925757621736175</v>
+        <v>0.6848256359131373</v>
       </c>
     </row>
     <row r="87">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5413,13 +5413,13 @@
         <v>128</v>
       </c>
       <c r="O87" t="n">
-        <v>0.8082191780821918</v>
+        <v>0.8175675675675675</v>
       </c>
       <c r="P87" t="n">
-        <v>0.5784313725490197</v>
+        <v>0.5931372549019608</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.691661130968247</v>
+        <v>0.6850484903101808</v>
       </c>
     </row>
     <row r="88">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5470,13 +5470,13 @@
         <v>128</v>
       </c>
       <c r="O88" t="n">
-        <v>0.7944444444444444</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="P88" t="n">
-        <v>0.7009803921568627</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.6776056036256141</v>
+        <v>0.6928276824330559</v>
       </c>
     </row>
     <row r="89">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5527,13 +5527,13 @@
         <v>128</v>
       </c>
       <c r="O89" t="n">
-        <v>0.8397435897435898</v>
+        <v>0.8012422360248447</v>
       </c>
       <c r="P89" t="n">
-        <v>0.6421568627450981</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.6743062020899675</v>
+        <v>0.6863672017016793</v>
       </c>
     </row>
     <row r="90">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5584,13 +5584,13 @@
         <v>128</v>
       </c>
       <c r="O90" t="n">
-        <v>0.7939393939393939</v>
+        <v>0.8012048192771084</v>
       </c>
       <c r="P90" t="n">
-        <v>0.6421568627450981</v>
+        <v>0.6519607843137255</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.6835641156308304</v>
+        <v>0.6810340428817815</v>
       </c>
     </row>
     <row r="91">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5641,13 +5641,13 @@
         <v>128</v>
       </c>
       <c r="O91" t="n">
-        <v>0.8116883116883117</v>
+        <v>0.7976878612716763</v>
       </c>
       <c r="P91" t="n">
-        <v>0.6127450980392157</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.6872370377538519</v>
+        <v>0.6813989929418501</v>
       </c>
     </row>
     <row r="92">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5698,13 +5698,13 @@
         <v>128</v>
       </c>
       <c r="O92" t="n">
-        <v>0.8070175438596491</v>
+        <v>0.8271604938271605</v>
       </c>
       <c r="P92" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.6568627450980392</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.6753659155260198</v>
+        <v>0.6777234389052732</v>
       </c>
     </row>
     <row r="93">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5755,13 +5755,13 @@
         <v>128</v>
       </c>
       <c r="O93" t="n">
-        <v>0.8011049723756906</v>
+        <v>0.7734806629834254</v>
       </c>
       <c r="P93" t="n">
-        <v>0.7107843137254902</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.6745013195108178</v>
+        <v>0.6875517553207414</v>
       </c>
     </row>
     <row r="94">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5812,13 +5812,13 @@
         <v>128</v>
       </c>
       <c r="O94" t="n">
-        <v>0.7885714285714286</v>
+        <v>0.8224852071005917</v>
       </c>
       <c r="P94" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.6813725490196079</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.6822880884054685</v>
+        <v>0.6737362301530652</v>
       </c>
     </row>
     <row r="95">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5869,13 +5869,13 @@
         <v>128</v>
       </c>
       <c r="O95" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.757396449704142</v>
       </c>
       <c r="P95" t="n">
-        <v>0.6127450980392157</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.6852725691236798</v>
+        <v>0.6974406060065726</v>
       </c>
     </row>
     <row r="96">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5926,13 +5926,13 @@
         <v>128</v>
       </c>
       <c r="O96" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.7848837209302325</v>
       </c>
       <c r="P96" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.6779719575625438</v>
+        <v>0.6869798867666281</v>
       </c>
     </row>
     <row r="97">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -5983,13 +5983,13 @@
         <v>128</v>
       </c>
       <c r="O97" t="n">
-        <v>0.7906976744186046</v>
+        <v>0.7947019867549668</v>
       </c>
       <c r="P97" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.6839796467613501</v>
+        <v>0.6941280610649291</v>
       </c>
     </row>
     <row r="98">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6040,13 +6040,13 @@
         <v>128</v>
       </c>
       <c r="O98" t="n">
-        <v>0.8269230769230769</v>
+        <v>0.7796610169491526</v>
       </c>
       <c r="P98" t="n">
-        <v>0.6323529411764706</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.6796904457106766</v>
+        <v>0.6857334428392108</v>
       </c>
     </row>
     <row r="99">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6097,13 +6097,13 @@
         <v>128</v>
       </c>
       <c r="O99" t="n">
-        <v>0.7861271676300579</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="P99" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.6850473501935698</v>
+        <v>0.6868778207296922</v>
       </c>
     </row>
     <row r="100">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6154,13 +6154,13 @@
         <v>128</v>
       </c>
       <c r="O100" t="n">
-        <v>0.8198757763975155</v>
+        <v>0.7885714285714286</v>
       </c>
       <c r="P100" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.6789047405156035</v>
+        <v>0.6813471423312537</v>
       </c>
     </row>
     <row r="101">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6211,13 +6211,13 @@
         <v>128</v>
       </c>
       <c r="O101" t="n">
-        <v>0.8541666666666666</v>
+        <v>0.8159509202453987</v>
       </c>
       <c r="P101" t="n">
-        <v>0.6029411764705882</v>
+        <v>0.6519607843137255</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.6790907345469758</v>
+        <v>0.6791659618148059</v>
       </c>
     </row>
   </sheetData>
